--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_282.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,44 +488,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:58.180000', '0:02:03.040000'), ('0:00:00.860000', '0:00:05.140000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,559 +542,628 @@
           <t>jaah_69</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0.1433251433251433</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab'], ['Eb:7', 'Eb:7', 'Ab', 'Ab', 'Ab']]</t>
-        </is>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_67</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05702405702405702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb'], ['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Eb']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.93, 20.17), (112.01, 121.44)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(33.48, 45.59), (49.26, 59.48)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:50', '0:00:56.610000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:00:12.700000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.08738738738738738</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08188405797101449</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(200.58, 201.82)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(242.22, 246.98)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:18.070000', '0:00:19.250000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:21.740000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2892857142857143</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.162102, 14.073123)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:36.340000', '0:00:42.080000'), ('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000'), ('0:00:34.860000', '0:00:39.700000'), ('0:00:25.480000', '0:00:32.580000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:35.700000', '0:00:38.280000'), ('0:00:12.560000', '0:00:17.200000'), ('0:00:23.040000', '0:00:26.520000'), ('0:00:40.640000', '0:00:42.420000'), ('0:00:07.840000', '0:00:11.420000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2072072072072072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.9, 16.08)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:45.760000', '0:00:53.560000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1776960784313726</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.32, 61.58)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(15.62, 58.08)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_59</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1086753731343284</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min7', 'G:7', 'C', 'D:min7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'C:min7', 'F:7', 'Bb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(123.3, 130.6)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(20.54, 24.63)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2022988505747126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(62.36, 66.92)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.54, 78.52)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
+          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:17.900000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1458333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.354679802955665</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(58.91672, 63.328512)]</t>
+          <t>[['E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.18, 12.04)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.935351', '0:00:28.899196')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:08.504874')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1806451612903226</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'A/3', 'A/5', 'A/3', 'A/5']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.64, 15.09)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(22.502498, 26.15204)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06397804054054054</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb:7', 'Ab:7', 'Db'], ['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['C:7', 'F:7', 'Bb'], ['C', 'G:7', 'C']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38), (124.84, 125.78), (14.3, 15.21)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(4.07, 7.47), (99.72, 103.18), (21.17, 23.45)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'E/6', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(80.022335, 83.702698)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(52.12, 55.48)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(212.6, 224.4)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(79.98, 93.6)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(94.925, 100.821)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.02, 22.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
